--- a/weekly_reports/weekly_data/2021 Charts Week 17.xlsx
+++ b/weekly_reports/weekly_data/2021 Charts Week 17.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylmp\Documents\[!] PROJETS PERSONNELS\[MUSIC] 2021 Charts\music_charts\weekly_reports\weekly_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A14358-9473-442A-8076-2DFF27DF1D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="By_Track_YouTube" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
     <sheet name="By_Label_1001Tracklists" sheetId="8" r:id="rId8"/>
     <sheet name="By_Label_Soundcloud" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -93,8 +99,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,12 +117,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -146,22 +158,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -203,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,9 +256,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,6 +308,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,14 +501,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -479,45 +538,45 @@
         <v>130431</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>81167</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>32930</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>2942</v>
       </c>
     </row>
@@ -527,14 +586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -568,7 +627,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -585,7 +644,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -602,7 +661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -625,14 +684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -660,7 +719,7 @@
         <v>14543</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -674,7 +733,7 @@
         <v>10499</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -688,7 +747,7 @@
         <v>10327</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -708,14 +767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -731,7 +790,7 @@
         <v>130431</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -739,7 +798,7 @@
         <v>130431</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -747,7 +806,7 @@
         <v>81167</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -755,7 +814,7 @@
         <v>32930</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -763,7 +822,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -777,14 +836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,7 +854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -806,7 +865,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -817,7 +876,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -828,7 +887,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,7 +898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -850,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -867,14 +926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,7 +941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -890,7 +949,7 @@
         <v>14543</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -898,7 +957,7 @@
         <v>14543</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -906,7 +965,7 @@
         <v>10499</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -914,7 +973,7 @@
         <v>10327</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -922,7 +981,7 @@
         <v>6106</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -936,14 +995,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -951,7 +1010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -959,7 +1018,7 @@
         <v>211598</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -973,14 +1032,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -991,7 +1050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1002,7 +1061,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1019,14 +1078,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1042,7 +1101,7 @@
         <v>24870</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
